--- a/testSelenium/bin/com/vincent/keyword/TestData2.xlsx
+++ b/testSelenium/bin/com/vincent/keyword/TestData2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Suite" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Steps" sheetId="2" r:id="rId2"/>
+    <sheet name="Suite" r:id="rId1" sheetId="1"/>
+    <sheet name="Test Steps" r:id="rId2" sheetId="2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="50">
   <si>
     <t>TestSuiteId</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -198,12 +198,19 @@
   <si>
     <t>CloseBrowser</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,31 +281,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -352,7 +359,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -397,10 +404,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -435,7 +442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -470,7 +477,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -564,21 +571,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -595,7 +602,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -647,29 +654,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row ht="18" r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -745,42 +752,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D6">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="4" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
       <formula>FAIL</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{6B023522-06F4-408D-B439-C995C4594B70}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C6" type="list" xr:uid="{6B023522-06F4-408D-B439-C995C4594B70}">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B32B90-3DED-4F63-9A5D-B1D359B1B218}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B32B90-3DED-4F63-9A5D-B1D359B1B218}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.75" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.25" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row ht="18" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -813,10 +820,15 @@
       <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -834,6 +846,9 @@
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -854,6 +869,9 @@
       <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -874,6 +892,9 @@
       <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -894,6 +915,9 @@
       <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -914,6 +938,9 @@
       <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -933,6 +960,9 @@
       </c>
       <c r="F8" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -950,30 +980,33 @@
       <c r="F9" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G9">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
       <formula>FAIL</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{C6253893-A88D-4869-8CB7-F122EC73D3F2}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E9" type="list" xr:uid="{C6253893-A88D-4869-8CB7-F122EC73D3F2}">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{F3437CFA-CBE0-4F22-A2AE-15A7F3102FA7}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D9" type="list" xr:uid="{F3437CFA-CBE0-4F22-A2AE-15A7F3102FA7}">
       <formula1>PageName</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>